--- a/bulkRNA-seq_analyses/sample_table.xlsx
+++ b/bulkRNA-seq_analyses/sample_table.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Base_1</t>
   </si>
@@ -220,6 +220,57 @@
   </si>
   <si>
     <t>Base</t>
+  </si>
+  <si>
+    <t>uniquely_mapped_percent</t>
+  </si>
+  <si>
+    <t>54.21</t>
+  </si>
+  <si>
+    <t>65.34</t>
+  </si>
+  <si>
+    <t>58.74</t>
+  </si>
+  <si>
+    <t>54.99</t>
+  </si>
+  <si>
+    <t>52.72</t>
+  </si>
+  <si>
+    <t>52.07</t>
+  </si>
+  <si>
+    <t>58.83</t>
+  </si>
+  <si>
+    <t>57.18</t>
+  </si>
+  <si>
+    <t>72.05</t>
+  </si>
+  <si>
+    <t>69.71</t>
+  </si>
+  <si>
+    <t>52.09</t>
+  </si>
+  <si>
+    <t>54.48</t>
+  </si>
+  <si>
+    <t>64.29</t>
+  </si>
+  <si>
+    <t>63.25</t>
+  </si>
+  <si>
+    <t>75.03</t>
+  </si>
+  <si>
+    <t>61.94</t>
   </si>
 </sst>
 </file>
@@ -634,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -645,7 +696,7 @@
     <col min="2" max="2" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -658,8 +709,11 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>25833</v>
       </c>
@@ -672,8 +726,11 @@
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>25834</v>
       </c>
@@ -686,8 +743,11 @@
       <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>25835</v>
       </c>
@@ -700,8 +760,11 @@
       <c r="D4" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>25836</v>
       </c>
@@ -714,8 +777,11 @@
       <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>25837</v>
       </c>
@@ -728,8 +794,11 @@
       <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>25838</v>
       </c>
@@ -742,8 +811,11 @@
       <c r="D7" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>25839</v>
       </c>
@@ -756,8 +828,11 @@
       <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>25840</v>
       </c>
@@ -770,8 +845,11 @@
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>27567</v>
       </c>
@@ -784,8 +862,11 @@
       <c r="D10" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>27568</v>
       </c>
@@ -798,8 +879,11 @@
       <c r="D11" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>27569</v>
       </c>
@@ -812,8 +896,11 @@
       <c r="D12" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>27570</v>
       </c>
@@ -826,8 +913,11 @@
       <c r="D13" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>27571</v>
       </c>
@@ -840,8 +930,11 @@
       <c r="D14" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>27573</v>
       </c>
@@ -854,8 +947,11 @@
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>27574</v>
       </c>
@@ -868,8 +964,11 @@
       <c r="D16" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>27575</v>
       </c>
@@ -881,6 +980,9 @@
       </c>
       <c r="D17" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
